--- a/results/essay_analysis/essay_comparison_25052025_1437.xlsx
+++ b/results/essay_analysis/essay_comparison_25052025_1437.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brunozorrilla/Documents/GitHub/artistotllm/results/essay_analysis/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C09B93-7857-D84E-BC69-BFA71E57D293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis Results" sheetId="1" r:id="rId1"/>
     <sheet name="Summary Statistics" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="111">
   <si>
     <t>Author</t>
   </si>
@@ -87,36 +93,6 @@
   </si>
   <si>
     <t>transformer_similarity_ORIGINAL</t>
-  </si>
-  <si>
-    <t>A Project Of Ones Own</t>
-  </si>
-  <si>
-    <t>After Credentials</t>
-  </si>
-  <si>
-    <t>A Students Guide To Startups</t>
-  </si>
-  <si>
-    <t>Apples Mistake</t>
-  </si>
-  <si>
-    <t>A Unified Theory Of Vc Suckage</t>
-  </si>
-  <si>
-    <t>A New Venture Animal</t>
-  </si>
-  <si>
-    <t>A Fundraising Survival Guide</t>
-  </si>
-  <si>
-    <t>A Plan For Spam</t>
-  </si>
-  <si>
-    <t>A Local Revolution</t>
-  </si>
-  <si>
-    <t>A Version 10</t>
   </si>
   <si>
     <t>a_project_of_ones_own</t>
@@ -376,15 +352,42 @@
   <si>
     <t>Max</t>
   </si>
+  <si>
+    <t>highest std. dev of all measures so far</t>
+  </si>
+  <si>
+    <t>interesting: low deviation in sentence length by authors, but high deviation in LLM</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>vocabulary similarity</t>
+  </si>
+  <si>
+    <t>word type (POS) similarity</t>
+  </si>
+  <si>
+    <t>Puncutation</t>
+  </si>
+  <si>
+    <t>Sentence length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">content (meaning) similarity </t>
+  </si>
+  <si>
+    <t>Paul Graham</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,12 +404,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -436,25 +451,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -492,7 +523,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -526,6 +557,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -560,9 +592,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -735,14 +768,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -816,131 +855,131 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" t="s">
         <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
       </c>
       <c r="C2">
         <v>2480</v>
       </c>
       <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
         <v>44</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>54</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>64</v>
       </c>
-      <c r="G2" t="s">
-        <v>74</v>
-      </c>
       <c r="H2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" t="s">
         <v>75</v>
-      </c>
-      <c r="I2" t="s">
-        <v>85</v>
       </c>
       <c r="J2">
         <v>478</v>
       </c>
       <c r="K2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="L2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="M2">
-        <v>0.1652</v>
+        <v>0.16520000000000001</v>
       </c>
       <c r="N2">
-        <v>0.2622</v>
+        <v>0.26219999999999999</v>
       </c>
       <c r="O2">
-        <v>0.9593</v>
+        <v>0.95930000000000004</v>
       </c>
       <c r="P2">
-        <v>0.9808</v>
+        <v>0.98080000000000001</v>
       </c>
       <c r="Q2">
-        <v>0.8564000000000001</v>
+        <v>0.85640000000000005</v>
       </c>
       <c r="R2">
         <v>21.26</v>
       </c>
       <c r="S2">
-        <v>0.9381</v>
+        <v>0.93810000000000004</v>
       </c>
       <c r="T2">
         <v>19.41</v>
       </c>
       <c r="U2">
-        <v>0.9276</v>
+        <v>0.92759999999999998</v>
       </c>
       <c r="V2">
         <v>0.9879</v>
       </c>
       <c r="W2">
-        <v>0.2824000120162964</v>
+        <v>0.28240001201629639</v>
       </c>
       <c r="X2">
-        <v>0.5302000045776367</v>
+        <v>0.53020000457763672</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" t="s">
         <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
       </c>
       <c r="C3">
         <v>2334</v>
       </c>
       <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
         <v>45</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>55</v>
       </c>
-      <c r="F3" t="s">
-        <v>65</v>
-      </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="H3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" t="s">
         <v>76</v>
-      </c>
-      <c r="I3" t="s">
-        <v>86</v>
       </c>
       <c r="J3">
         <v>487</v>
       </c>
       <c r="K3" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="L3" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M3">
-        <v>0.0814</v>
+        <v>8.14E-2</v>
       </c>
       <c r="N3">
-        <v>0.2201</v>
+        <v>0.22009999999999999</v>
       </c>
       <c r="O3">
-        <v>0.8592</v>
+        <v>0.85919999999999996</v>
       </c>
       <c r="P3">
-        <v>0.9162</v>
+        <v>0.91620000000000001</v>
       </c>
       <c r="Q3">
-        <v>0.9006999999999999</v>
+        <v>0.90069999999999995</v>
       </c>
       <c r="R3">
         <v>20.5</v>
@@ -952,140 +991,140 @@
         <v>15.88</v>
       </c>
       <c r="U3">
-        <v>0.8181</v>
+        <v>0.81810000000000005</v>
       </c>
       <c r="V3">
-        <v>0.9616</v>
+        <v>0.96160000000000001</v>
       </c>
       <c r="W3">
-        <v>0.4826000034809113</v>
+        <v>0.48260000348091131</v>
       </c>
       <c r="X3">
-        <v>0.3319000005722046</v>
+        <v>0.33190000057220459</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" t="s">
         <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
       </c>
       <c r="C4">
         <v>6373</v>
       </c>
       <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
         <v>46</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>56</v>
       </c>
-      <c r="F4" t="s">
-        <v>66</v>
-      </c>
       <c r="G4" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="H4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" t="s">
         <v>77</v>
-      </c>
-      <c r="I4" t="s">
-        <v>87</v>
       </c>
       <c r="J4">
         <v>186</v>
       </c>
       <c r="K4" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="L4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="M4">
         <v>0.1769</v>
       </c>
       <c r="N4">
-        <v>0.2345</v>
+        <v>0.23449999999999999</v>
       </c>
       <c r="O4">
-        <v>0.9463</v>
+        <v>0.94630000000000003</v>
       </c>
       <c r="P4">
-        <v>0.9761</v>
+        <v>0.97609999999999997</v>
       </c>
       <c r="Q4">
-        <v>0.9307</v>
+        <v>0.93069999999999997</v>
       </c>
       <c r="R4">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="S4">
-        <v>0.971</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="T4">
         <v>18.79</v>
       </c>
       <c r="U4">
-        <v>0.9801</v>
+        <v>0.98009999999999997</v>
       </c>
       <c r="V4">
-        <v>0.9633</v>
+        <v>0.96330000000000005</v>
       </c>
       <c r="W4">
-        <v>0.5522000193595886</v>
+        <v>0.55220001935958862</v>
       </c>
       <c r="X4">
-        <v>0.5655999779701233</v>
+        <v>0.56559997797012329</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" t="s">
         <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
       </c>
       <c r="C5">
         <v>2103</v>
       </c>
       <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
         <v>47</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>57</v>
       </c>
-      <c r="F5" t="s">
-        <v>67</v>
-      </c>
       <c r="G5" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="H5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" t="s">
         <v>78</v>
-      </c>
-      <c r="I5" t="s">
-        <v>88</v>
       </c>
       <c r="J5">
         <v>318</v>
       </c>
       <c r="K5" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="L5" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="M5">
         <v>0.4178</v>
       </c>
       <c r="N5">
-        <v>0.3756</v>
+        <v>0.37559999999999999</v>
       </c>
       <c r="O5">
-        <v>0.962</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="P5">
-        <v>0.9671999999999999</v>
+        <v>0.96719999999999995</v>
       </c>
       <c r="Q5">
         <v>0.754</v>
@@ -1094,430 +1133,430 @@
         <v>17.47</v>
       </c>
       <c r="S5">
-        <v>0.9573</v>
+        <v>0.95730000000000004</v>
       </c>
       <c r="T5">
         <v>13.76</v>
       </c>
       <c r="U5">
-        <v>0.9409999999999999</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="V5">
-        <v>0.9927</v>
+        <v>0.99270000000000003</v>
       </c>
       <c r="W5">
-        <v>0.7035999894142151</v>
+        <v>0.70359998941421509</v>
       </c>
       <c r="X5">
-        <v>0.6528999805450439</v>
+        <v>0.65289998054504395</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" t="s">
         <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
       </c>
       <c r="C6">
         <v>1445</v>
       </c>
       <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
         <v>48</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>58</v>
       </c>
-      <c r="F6" t="s">
-        <v>68</v>
-      </c>
       <c r="G6" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="H6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" t="s">
         <v>79</v>
-      </c>
-      <c r="I6" t="s">
-        <v>89</v>
       </c>
       <c r="J6">
         <v>175</v>
       </c>
       <c r="K6" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="M6">
-        <v>0.1312</v>
+        <v>0.13120000000000001</v>
       </c>
       <c r="N6">
-        <v>0.1614</v>
+        <v>0.16139999999999999</v>
       </c>
       <c r="O6">
-        <v>0.9422</v>
+        <v>0.94220000000000004</v>
       </c>
       <c r="P6">
         <v>0.9536</v>
       </c>
       <c r="Q6">
-        <v>0.6719000000000001</v>
+        <v>0.67190000000000005</v>
       </c>
       <c r="R6">
-        <v>20.44</v>
+        <v>20.440000000000001</v>
       </c>
       <c r="S6">
-        <v>0.9792999999999999</v>
+        <v>0.97929999999999995</v>
       </c>
       <c r="T6">
         <v>14.03</v>
       </c>
       <c r="U6">
-        <v>0.8645</v>
+        <v>0.86450000000000005</v>
       </c>
       <c r="V6">
-        <v>0.9938</v>
+        <v>0.99380000000000002</v>
       </c>
       <c r="W6">
-        <v>0.5078999996185303</v>
+        <v>0.50789999961853027</v>
       </c>
       <c r="X6">
-        <v>0.4442000091075897</v>
+        <v>0.44420000910758972</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" t="s">
         <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
       </c>
       <c r="C7">
         <v>1961</v>
       </c>
       <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
         <v>49</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>59</v>
       </c>
-      <c r="F7" t="s">
-        <v>69</v>
-      </c>
       <c r="G7" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="H7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" t="s">
         <v>80</v>
-      </c>
-      <c r="I7" t="s">
-        <v>90</v>
       </c>
       <c r="J7">
         <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="M7">
         <v>0.1235</v>
       </c>
       <c r="N7">
-        <v>0.144</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="O7">
-        <v>0.9429999999999999</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="P7">
-        <v>0.9341</v>
+        <v>0.93410000000000004</v>
       </c>
       <c r="Q7">
-        <v>0.5304</v>
+        <v>0.53039999999999998</v>
       </c>
       <c r="R7">
         <v>29</v>
       </c>
       <c r="S7">
-        <v>0.8612</v>
+        <v>0.86119999999999997</v>
       </c>
       <c r="T7">
         <v>17.86</v>
       </c>
       <c r="U7">
-        <v>0.7747000000000001</v>
+        <v>0.77470000000000006</v>
       </c>
       <c r="V7">
-        <v>0.9865</v>
+        <v>0.98650000000000004</v>
       </c>
       <c r="W7">
-        <v>0.7324000000953674</v>
+        <v>0.73240000009536743</v>
       </c>
       <c r="X7">
-        <v>0.3468999862670898</v>
+        <v>0.34689998626708979</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" t="s">
         <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
       </c>
       <c r="C8">
         <v>4754</v>
       </c>
       <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
         <v>50</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>60</v>
       </c>
-      <c r="F8" t="s">
-        <v>70</v>
-      </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="H8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" t="s">
         <v>81</v>
-      </c>
-      <c r="I8" t="s">
-        <v>91</v>
       </c>
       <c r="J8">
         <v>517</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="L8" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="M8">
-        <v>0.1755</v>
+        <v>0.17549999999999999</v>
       </c>
       <c r="N8">
-        <v>0.231</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="O8">
         <v>0.97</v>
       </c>
       <c r="P8">
-        <v>0.9532</v>
+        <v>0.95320000000000005</v>
       </c>
       <c r="Q8">
-        <v>0.7299</v>
+        <v>0.72989999999999999</v>
       </c>
       <c r="R8">
         <v>18.79</v>
       </c>
       <c r="S8">
-        <v>0.8706</v>
+        <v>0.87060000000000004</v>
       </c>
       <c r="T8">
         <v>15.76</v>
       </c>
       <c r="U8">
-        <v>0.9528</v>
+        <v>0.95279999999999998</v>
       </c>
       <c r="V8">
-        <v>0.9306</v>
+        <v>0.93059999999999998</v>
       </c>
       <c r="W8">
-        <v>0.6879000067710876</v>
+        <v>0.68790000677108765</v>
       </c>
       <c r="X8">
         <v>0.758899986743927</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" t="s">
         <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
       </c>
       <c r="C9">
         <v>5237</v>
       </c>
       <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
         <v>51</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>61</v>
       </c>
-      <c r="F9" t="s">
-        <v>71</v>
-      </c>
       <c r="G9" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="H9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" t="s">
         <v>82</v>
-      </c>
-      <c r="I9" t="s">
-        <v>92</v>
       </c>
       <c r="J9">
         <v>470</v>
       </c>
       <c r="K9" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="L9" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="M9">
-        <v>0.2342</v>
+        <v>0.23419999999999999</v>
       </c>
       <c r="N9">
         <v>0.2059</v>
       </c>
       <c r="O9">
-        <v>0.9291</v>
+        <v>0.92910000000000004</v>
       </c>
       <c r="P9">
-        <v>0.9407</v>
+        <v>0.94069999999999998</v>
       </c>
       <c r="Q9">
-        <v>0.6662</v>
+        <v>0.66620000000000001</v>
       </c>
       <c r="R9">
         <v>23.7</v>
       </c>
       <c r="S9">
-        <v>0.8824</v>
+        <v>0.88239999999999996</v>
       </c>
       <c r="T9">
         <v>17.89</v>
       </c>
       <c r="U9">
-        <v>0.9296</v>
+        <v>0.92959999999999998</v>
       </c>
       <c r="V9">
-        <v>0.7393</v>
+        <v>0.73929999999999996</v>
       </c>
       <c r="W9">
-        <v>0.711899995803833</v>
+        <v>0.71189999580383301</v>
       </c>
       <c r="X9">
-        <v>0.6079999804496765</v>
+        <v>0.60799998044967651</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" t="s">
         <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>42</v>
       </c>
       <c r="C10">
         <v>1318</v>
       </c>
       <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
         <v>52</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>62</v>
       </c>
-      <c r="F10" t="s">
-        <v>72</v>
-      </c>
       <c r="G10" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" t="s">
         <v>83</v>
-      </c>
-      <c r="I10" t="s">
-        <v>93</v>
       </c>
       <c r="J10">
         <v>537</v>
       </c>
       <c r="K10" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="L10" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="M10">
-        <v>0.267</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="N10">
         <v>0.1613</v>
       </c>
       <c r="O10">
-        <v>0.9528</v>
+        <v>0.95279999999999998</v>
       </c>
       <c r="P10">
         <v>0.9486</v>
       </c>
       <c r="Q10">
-        <v>0.775</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="R10">
         <v>22.67</v>
       </c>
       <c r="S10">
-        <v>0.8092</v>
+        <v>0.80920000000000003</v>
       </c>
       <c r="T10">
         <v>21.71</v>
       </c>
       <c r="U10">
-        <v>0.8919</v>
+        <v>0.89190000000000003</v>
       </c>
       <c r="V10">
-        <v>0.9527</v>
+        <v>0.95269999999999999</v>
       </c>
       <c r="W10">
-        <v>0.7878000140190125</v>
+        <v>0.78780001401901245</v>
       </c>
       <c r="X10">
-        <v>0.7071999907493591</v>
+        <v>0.70719999074935913</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" t="s">
         <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>43</v>
       </c>
       <c r="C11">
         <v>4222</v>
       </c>
       <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
         <v>53</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>63</v>
       </c>
-      <c r="F11" t="s">
-        <v>73</v>
-      </c>
       <c r="G11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" t="s">
         <v>74</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>84</v>
-      </c>
-      <c r="I11" t="s">
-        <v>94</v>
       </c>
       <c r="J11">
         <v>349</v>
       </c>
       <c r="K11" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" t="s">
         <v>95</v>
-      </c>
-      <c r="L11" t="s">
-        <v>105</v>
       </c>
       <c r="M11">
         <v>0.215</v>
@@ -1526,31 +1565,31 @@
         <v>0.1578</v>
       </c>
       <c r="O11">
-        <v>0.9564</v>
+        <v>0.95640000000000003</v>
       </c>
       <c r="P11">
-        <v>0.968</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="Q11">
-        <v>0.8923</v>
+        <v>0.89229999999999998</v>
       </c>
       <c r="R11">
         <v>19.05</v>
       </c>
       <c r="S11">
-        <v>0.954</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="T11">
         <v>16.22</v>
       </c>
       <c r="U11">
-        <v>0.982</v>
+        <v>0.98199999999999998</v>
       </c>
       <c r="V11">
-        <v>0.9878</v>
+        <v>0.98780000000000001</v>
       </c>
       <c r="W11">
-        <v>0.6001999974250793</v>
+        <v>0.60019999742507935</v>
       </c>
       <c r="X11">
         <v>0.4325999915599823</v>
@@ -1562,263 +1601,299 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="163" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="13" width="12.7109375" style="2" customWidth="1"/>
+    <col min="2" max="6" width="12.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="12.6640625" style="2" customWidth="1"/>
+    <col min="12" max="13" width="27" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M2" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="2">
         <v>0.19877</v>
       </c>
-      <c r="C2" s="2">
-        <v>0.21538</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.9420300000000001</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.9538500000000001</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0.77075</v>
-      </c>
-      <c r="G2" s="2">
-        <v>21.248</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.9083100000000002</v>
-      </c>
-      <c r="I2" s="2">
+      <c r="C3" s="2">
+        <v>0.21537999999999999</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.94203000000000015</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.95385000000000009</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.77075000000000005</v>
+      </c>
+      <c r="G3" s="2">
+        <v>21.248000000000001</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.90831000000000017</v>
+      </c>
+      <c r="I3" s="2">
         <v>17.131</v>
       </c>
-      <c r="J2" s="2">
-        <v>0.9062300000000001</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0.94962</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0.604889988899231</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0.5378400087356567</v>
+      <c r="J3" s="2">
+        <v>0.90623000000000009</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.94962000000000002</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.60488998889923096</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.53784000873565674</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B3" s="2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="2">
         <v>0.1762</v>
       </c>
-      <c r="C3" s="2">
-        <v>0.213</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.94955</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.9534</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.7645</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="C4" s="2">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.94955000000000001</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.95340000000000003</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.76449999999999996</v>
+      </c>
+      <c r="G4" s="2">
         <v>20.47</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H4" s="2">
         <v>0.91025</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I4" s="2">
         <v>17.04</v>
       </c>
-      <c r="J3" s="2">
-        <v>0.9286</v>
-      </c>
-      <c r="K3" s="2">
+      <c r="J4" s="2">
+        <v>0.92859999999999998</v>
+      </c>
+      <c r="K4" s="2">
         <v>0.9749000000000001</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L4" s="2">
         <v>0.6440500020980835</v>
       </c>
-      <c r="M3" s="2">
-        <v>0.5478999614715576</v>
+      <c r="M4" s="2">
+        <v>0.54789996147155762</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.09445863350930102</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.06898737082490776</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.03135648258335109</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.02002322262884883</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.1269377909756499</v>
-      </c>
-      <c r="G4" s="2">
-        <v>3.2863786215901</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.05851308400691249</v>
-      </c>
-      <c r="I4" s="2">
-        <v>2.478245122841744</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0.06879292680049144</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0.07675891262040305</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0.1523739099502563</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0.1472917795181274</v>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="5">
+        <v>9.4458633509301018E-2</v>
+      </c>
+      <c r="C5" s="5">
+        <v>6.8987370824907759E-2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3.1356482583351088E-2</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2.0023222628848831E-2</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.12693779097564989</v>
+      </c>
+      <c r="G5" s="5">
+        <v>3.2863786215900999</v>
+      </c>
+      <c r="H5" s="5">
+        <v>5.8513084006912491E-2</v>
+      </c>
+      <c r="I5" s="5">
+        <v>2.4782451228417441</v>
+      </c>
+      <c r="J5" s="5">
+        <v>6.8792926800491441E-2</v>
+      </c>
+      <c r="K5" s="5">
+        <v>7.6758912620403047E-2</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0.15237390995025629</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0.14729177951812741</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.0814</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.144</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.8592</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.9162</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.5304</v>
-      </c>
-      <c r="G5" s="2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="2">
+        <v>8.14E-2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.85919999999999996</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.91620000000000001</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.53039999999999998</v>
+      </c>
+      <c r="G6" s="2">
         <v>17.47</v>
       </c>
-      <c r="H5" s="2">
-        <v>0.8092</v>
-      </c>
-      <c r="I5" s="2">
+      <c r="H6" s="2">
+        <v>0.80920000000000003</v>
+      </c>
+      <c r="I6" s="2">
         <v>13.76</v>
       </c>
-      <c r="J5" s="2">
-        <v>0.7747000000000001</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0.7393</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0.2824000120162964</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0.3319000005722046</v>
+      <c r="J6" s="2">
+        <v>0.77470000000000006</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.73929999999999996</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.28240001201629639</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.33190000057220459</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" s="2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="2">
         <v>0.4178</v>
       </c>
-      <c r="C6" s="2">
-        <v>0.3756</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="C7" s="2">
+        <v>0.37559999999999999</v>
+      </c>
+      <c r="D7" s="2">
         <v>0.97</v>
       </c>
-      <c r="E6" s="2">
-        <v>0.9808</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.9307</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="E7" s="2">
+        <v>0.98080000000000001</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.93069999999999997</v>
+      </c>
+      <c r="G7" s="2">
         <v>29</v>
       </c>
-      <c r="H6" s="2">
-        <v>0.9792999999999999</v>
-      </c>
-      <c r="I6" s="2">
+      <c r="H7" s="2">
+        <v>0.97929999999999995</v>
+      </c>
+      <c r="I7" s="2">
         <v>21.71</v>
       </c>
-      <c r="J6" s="2">
-        <v>0.982</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0.9938</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0.7878000140190125</v>
-      </c>
-      <c r="M6" s="2">
+      <c r="J7" s="2">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.99380000000000002</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.78780001401901245</v>
+      </c>
+      <c r="M7" s="2">
         <v>0.758899986743927</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>